--- a/config_debug/fish_3d_server.xlsx
+++ b/config_debug/fish_3d_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\JyQipai_doc\config_3D\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="game_main" sheetId="2" r:id="rId1"/>
@@ -77,10 +77,6 @@
     <t>4 - 小于等于</t>
   </si>
   <si>
-    <t>初级场</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">game_model|类型 </t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -93,18 +89,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>体验场</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级场</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级场</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>10,20,30,40,50,60,70,80,90,100,</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -148,10 +132,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>终极场</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>100000,200000,300000,400000,500000,600000,700000,800000,900000,1000000,</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -165,6 +145,26 @@
   </si>
   <si>
     <t>jing_bi</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>试炼场</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘海域</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>海底宝藏</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>藏宝海湾</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海沉船</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -637,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:G10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -668,7 +668,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -687,15 +687,15 @@
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>22</v>
+      <c r="C2" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
@@ -710,15 +710,15 @@
       <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>18</v>
+      <c r="C3" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -734,14 +734,14 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
@@ -757,14 +757,14 @@
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
@@ -780,14 +780,14 @@
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -1037,16 +1037,16 @@
         <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1060,16 +1060,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E2" s="7">
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1083,13 +1083,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E3" s="7">
         <v>2</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1103,13 +1103,13 @@
         <v>3</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E4" s="7">
         <v>3</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1123,13 +1123,13 @@
         <v>4</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E5" s="7">
         <v>4</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1143,13 +1143,13 @@
         <v>5</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E6" s="7">
         <v>5</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1231,7 +1231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -1406,7 +1406,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D9" s="1">
         <v>1000000</v>

--- a/config_debug/fish_3d_server.xlsx
+++ b/config_debug/fish_3d_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="game_main" sheetId="2" r:id="rId1"/>
@@ -637,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1231,8 +1231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1318,7 +1318,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="1">
-        <v>1000</v>
+        <v>20000</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
@@ -1358,7 +1358,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="1">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="E6" s="1">
         <v>3</v>
@@ -1392,7 +1392,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="1">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="E8" s="1">
         <v>3</v>
@@ -1409,7 +1409,7 @@
         <v>35</v>
       </c>
       <c r="D9" s="1">
-        <v>1000000</v>
+        <v>5000000</v>
       </c>
       <c r="E9" s="1">
         <v>3</v>

--- a/config_debug/fish_3d_server.xlsx
+++ b/config_debug/fish_3d_server.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
   <si>
     <t>id|行号</t>
   </si>
@@ -172,7 +172,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,22 +223,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,13 +242,8 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -302,30 +288,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -354,15 +322,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 4" xfId="1"/>
-    <cellStyle name="计算" xfId="2" builtinId="22"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -694,7 +658,7 @@
       <c r="E2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="1">
@@ -717,7 +681,7 @@
       <c r="E3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G3" s="1">
@@ -740,7 +704,7 @@
       <c r="E4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="1">
@@ -763,7 +727,7 @@
       <c r="E5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G5" s="1">
@@ -786,7 +750,7 @@
       <c r="E6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G6" s="1">
@@ -801,7 +765,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="11"/>
+      <c r="F7" s="10"/>
       <c r="G7" s="1"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
@@ -812,7 +776,7 @@
       <c r="C8" s="3"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="11"/>
+      <c r="F8" s="10"/>
       <c r="G8" s="1"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
@@ -823,7 +787,7 @@
       <c r="C9" s="3"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="11"/>
+      <c r="F9" s="10"/>
       <c r="G9" s="1"/>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
@@ -834,7 +798,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="11"/>
+      <c r="F10" s="10"/>
       <c r="G10" s="1"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
@@ -1229,10 +1193,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1328,20 +1292,20 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="10">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="1">
-        <v>2000000</v>
+        <v>100000</v>
       </c>
       <c r="E5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>17</v>
@@ -1352,13 +1316,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="1">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="E6" s="1">
         <v>3</v>
@@ -1369,49 +1333,15 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="D7" s="1">
-        <v>20000000</v>
+        <v>5000000</v>
       </c>
       <c r="E7" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="E8" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>5</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="1">
-        <v>5000000</v>
-      </c>
-      <c r="E9" s="1">
         <v>3</v>
       </c>
     </row>

--- a/config_debug/fish_3d_server.xlsx
+++ b/config_debug/fish_3d_server.xlsx
@@ -1196,7 +1196,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1262,7 +1262,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="1">
-        <v>50000</v>
+        <v>15000000</v>
       </c>
       <c r="E3" s="1">
         <v>4</v>

--- a/config_debug/fish_3d_server.xlsx
+++ b/config_debug/fish_3d_server.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
   <si>
     <t>id|行号</t>
   </si>
@@ -1193,10 +1193,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1262,7 +1262,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="1">
-        <v>15000000</v>
+        <v>50000</v>
       </c>
       <c r="E3" s="1">
         <v>4</v>
@@ -1296,16 +1296,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="1">
-        <v>100000</v>
+        <v>2000000</v>
       </c>
       <c r="E5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>17</v>
@@ -1316,13 +1316,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="1">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="E6" s="1">
         <v>3</v>
@@ -1333,15 +1333,49 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1">
+        <v>20000000</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D9" s="1">
         <v>5000000</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E9" s="1">
         <v>3</v>
       </c>
     </row>

--- a/config_debug/fish_3d_server.xlsx
+++ b/config_debug/fish_3d_server.xlsx
@@ -1196,7 +1196,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1262,7 +1262,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="1">
-        <v>50000</v>
+        <v>200000</v>
       </c>
       <c r="E3" s="1">
         <v>4</v>

--- a/config_debug/fish_3d_server.xlsx
+++ b/config_debug/fish_3d_server.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
   <si>
     <t>id|行号</t>
   </si>
@@ -1193,10 +1193,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1296,16 +1296,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="1">
-        <v>2000000</v>
+        <v>100000</v>
       </c>
       <c r="E5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>17</v>
@@ -1316,13 +1316,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="1">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="E6" s="1">
         <v>3</v>
@@ -1333,49 +1333,15 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="D7" s="1">
-        <v>20000000</v>
+        <v>5000000</v>
       </c>
       <c r="E7" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="E8" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>5</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="1">
-        <v>5000000</v>
-      </c>
-      <c r="E9" s="1">
         <v>3</v>
       </c>
     </row>

--- a/config_debug/fish_3d_server.xlsx
+++ b/config_debug/fish_3d_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="game_main" sheetId="2" r:id="rId1"/>
@@ -623,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -799,7 +799,7 @@
         <v>24</v>
       </c>
       <c r="G7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
@@ -822,7 +822,7 @@
         <v>24</v>
       </c>
       <c r="G8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
@@ -845,7 +845,7 @@
         <v>24</v>
       </c>
       <c r="G9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
@@ -1301,7 +1301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>

--- a/config_debug/fish_3d_server.xlsx
+++ b/config_debug/fish_3d_server.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
   <si>
     <t>id|行号</t>
   </si>
@@ -144,10 +144,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>jing_bi</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>试炼场</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -166,28 +162,6 @@
   <si>
     <t>深海沉船</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>海底两万里</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>螃蟹大作战</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>疯狂激光</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>fish_boss_data_config_1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>fish_boss_data_config_2</t>
-  </si>
-  <si>
-    <t>fish_boss_data_config_3</t>
   </si>
 </sst>
 </file>
@@ -621,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -674,7 +648,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
@@ -697,7 +671,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
@@ -720,7 +694,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
@@ -743,7 +717,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
@@ -766,7 +740,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
@@ -782,81 +756,45 @@
       <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="3"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="1"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>7</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>42</v>
-      </c>
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>8</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>43</v>
-      </c>
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="3"/>
+      <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="10"/>
+      <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
@@ -869,42 +807,39 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
+      <c r="K11" s="8"/>
     </row>
     <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="C12" s="3"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
+      <c r="K12" s="8"/>
     </row>
     <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="C13" s="3"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
+      <c r="K13" s="8"/>
     </row>
     <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="C14" s="3"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="K14" s="8"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="3"/>
@@ -912,9 +847,8 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="K15" s="8"/>
-    </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="3"/>
@@ -922,9 +856,8 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="K16" s="8"/>
-    </row>
-    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="3"/>
@@ -932,7 +865,6 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="K17" s="8"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
@@ -943,7 +875,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="3"/>
@@ -951,8 +883,10 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+    </row>
+    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="3"/>
@@ -960,8 +894,10 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+    </row>
+    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="3"/>
@@ -969,6 +905,8 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
     </row>
     <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
@@ -981,45 +919,12 @@
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
     </row>
-    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-    </row>
-    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="1"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-    </row>
-    <row r="25" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -1030,10 +935,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D5" sqref="D4:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1175,64 +1080,16 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1">
-        <v>6</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="7">
-        <v>6</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1">
-        <v>7</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="7">
-        <v>7</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1">
-        <v>8</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="7">
-        <v>8</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D10" s="7"/>
@@ -1277,18 +1134,6 @@
     <row r="20" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -1299,10 +1144,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1434,74 +1279,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="1">
-        <v>5000000</v>
-      </c>
-      <c r="E7" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="E8" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>5</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2000000</v>
-      </c>
-      <c r="E9" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>5</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="1">
-        <v>5000000</v>
-      </c>
-      <c r="E10" s="1">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <sortState ref="D2:D12">
     <sortCondition ref="D12"/>

--- a/config_debug/fish_3d_server.xlsx
+++ b/config_debug/fish_3d_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="game_main" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
   <si>
     <t>id|行号</t>
   </si>
@@ -161,6 +161,10 @@
   </si>
   <si>
     <t>深海沉船</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -597,7 +601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -938,7 +942,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D5" sqref="D4:D5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1144,10 +1148,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1279,6 +1283,23 @@
         <v>3</v>
       </c>
     </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="D2:D12">
     <sortCondition ref="D12"/>

--- a/config_debug/fish_3d_server.xlsx
+++ b/config_debug/fish_3d_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="game_main" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
   <si>
     <t>id|行号</t>
   </si>
@@ -207,6 +207,10 @@
   </si>
   <si>
     <t>jing_bi</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>name_type|名字类型 1=数字 2=中文</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1017,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1028,14 +1032,14 @@
     <col min="1" max="1" width="10.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="72.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="26.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="40" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="11" style="1"/>
+    <col min="6" max="7" width="25.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="40" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1055,10 +1059,13 @@
         <v>19</v>
       </c>
       <c r="G1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1077,11 +1084,14 @@
       <c r="F2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1100,8 +1110,11 @@
       <c r="F3" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1120,8 +1133,11 @@
       <c r="F4" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1140,8 +1156,11 @@
       <c r="F5" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1160,8 +1179,11 @@
       <c r="F6" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1180,8 +1202,11 @@
       <c r="F7" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1200,8 +1225,11 @@
       <c r="F8" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1220,32 +1248,35 @@
       <c r="F9" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
     </row>
@@ -1276,7 +1307,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>

--- a/config_debug/fish_3d_server.xlsx
+++ b/config_debug/fish_3d_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="game_main" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
   <si>
     <t>id|行号</t>
   </si>
@@ -166,40 +166,6 @@
   <si>
     <t>jing_bi</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>海底两万里</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>nor_fishing_3d_nor</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>螃蟹大作战</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>疯狂激光</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>nor_fishing_3d_nor</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>fish_boss_data_config_1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>fish_boss_data_config_2</t>
-  </si>
-  <si>
-    <t>100000,200000,300000,400000,500000,600000,700000,800000,900000,1000000,</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>fish_boss_data_config_3</t>
   </si>
   <si>
     <t>jing_bi</t>
@@ -645,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A9" sqref="A7:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -805,97 +771,58 @@
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>41</v>
-      </c>
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>7</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>43</v>
-      </c>
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-    </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>8</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="3"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="K9" s="8"/>
     </row>
     <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="C10" s="3"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
+      <c r="K10" s="8"/>
     </row>
     <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="C11" s="3"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="K11" s="8"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="3"/>
@@ -903,9 +830,8 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="K12" s="8"/>
-    </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="3"/>
@@ -913,9 +839,8 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="K13" s="8"/>
-    </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="3"/>
@@ -923,7 +848,6 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="K14" s="8"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
@@ -934,7 +858,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="3"/>
@@ -942,8 +866,10 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+    </row>
+    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="3"/>
@@ -951,8 +877,10 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+    </row>
+    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="3"/>
@@ -960,6 +888,8 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
     </row>
     <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
@@ -972,45 +902,12 @@
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
     </row>
-    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-    </row>
-    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="1"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-    </row>
-    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -1021,10 +918,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1059,7 +956,7 @@
         <v>19</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>20</v>
@@ -1184,73 +1081,16 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1">
-        <v>6</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="7">
-        <v>6</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1</v>
-      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1">
-        <v>7</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="7">
-        <v>7</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1">
-        <v>8</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="7">
-        <v>8</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D10" s="7"/>
@@ -1283,18 +1123,6 @@
     <row r="17" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -1307,8 +1135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="A2:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1516,7 +1344,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D11" s="1">
         <v>1000000</v>
@@ -1533,7 +1361,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D12" s="1">
         <v>2000000</v>
@@ -1550,7 +1378,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D13" s="1">
         <v>5000000</v>
